--- a/RAnalysis/Data/Sequencing_metadata/ATACseq_samples.xlsx
+++ b/RAnalysis/Data/Sequencing_metadata/ATACseq_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\Github_repositories\Pmagellanicus_omics\RAnalysis\Data\Sequencing_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9407F6E-BDCD-4D40-B489-0A2E6B229C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A24E-ABC9-4110-B4AD-2143639CF34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="116">
   <si>
     <t>Sea scallop sample log sheet for OAP project , "Disentagling.."</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>color tag for experiment</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Hurricane Island (Rockland and Vinalhaven)</t>
@@ -206,102 +203,6 @@
     <t>Downeast Institute, 39 Wildflower Ln, Beals, Maine, USA</t>
   </si>
   <si>
-    <t>gill 1</t>
-  </si>
-  <si>
-    <t>gill 2</t>
-  </si>
-  <si>
-    <t>gill 3</t>
-  </si>
-  <si>
-    <t>gill 4</t>
-  </si>
-  <si>
-    <t>gill 5</t>
-  </si>
-  <si>
-    <t>gill 6</t>
-  </si>
-  <si>
-    <t>gill 7</t>
-  </si>
-  <si>
-    <t>gill 8</t>
-  </si>
-  <si>
-    <t>gill 9</t>
-  </si>
-  <si>
-    <t>gill 10</t>
-  </si>
-  <si>
-    <t>gill 11</t>
-  </si>
-  <si>
-    <t>gill 12</t>
-  </si>
-  <si>
-    <t>gill 13</t>
-  </si>
-  <si>
-    <t>gill 14</t>
-  </si>
-  <si>
-    <t>gill 15</t>
-  </si>
-  <si>
-    <t>gill 16</t>
-  </si>
-  <si>
-    <t>gill 17</t>
-  </si>
-  <si>
-    <t>gill 18</t>
-  </si>
-  <si>
-    <t>gill 19</t>
-  </si>
-  <si>
-    <t>gill 20</t>
-  </si>
-  <si>
-    <t>gill 21</t>
-  </si>
-  <si>
-    <t>gill 22</t>
-  </si>
-  <si>
-    <t>gill 23</t>
-  </si>
-  <si>
-    <t>gill 24</t>
-  </si>
-  <si>
-    <t>gill 25</t>
-  </si>
-  <si>
-    <t>gill 26</t>
-  </si>
-  <si>
-    <t>gill 27</t>
-  </si>
-  <si>
-    <t>gill 28</t>
-  </si>
-  <si>
-    <t>gill 29</t>
-  </si>
-  <si>
-    <t>gill 30</t>
-  </si>
-  <si>
-    <t>gill 31</t>
-  </si>
-  <si>
-    <t>gill 32</t>
-  </si>
-  <si>
     <t>ATACseq</t>
   </si>
   <si>
@@ -322,13 +223,184 @@
   <si>
     <t>additional sample data not required by NCBI, important to track sampling date, location, shell height, tank number, storage condition, and whether sent for sequencing</t>
   </si>
+  <si>
+    <t>gill 9 HI Crane East Tank 1</t>
+  </si>
+  <si>
+    <t>gill 14 HI Crane East Tank 4</t>
+  </si>
+  <si>
+    <t>gill 29 HI Crane East Tank 11</t>
+  </si>
+  <si>
+    <t>gill 34 HI Crane East Tank 13</t>
+  </si>
+  <si>
+    <t>gill 36 HI Crane East Tank 14</t>
+  </si>
+  <si>
+    <t>gill 10 HI Buzzs Tank 2</t>
+  </si>
+  <si>
+    <t>gill 15 HI Buzzs Tank 3</t>
+  </si>
+  <si>
+    <t>gill 19 HI Buzzs Tank 6</t>
+  </si>
+  <si>
+    <t>gill 22 HI Buzzs Tank 7</t>
+  </si>
+  <si>
+    <t>gill 25 HI Buzzs Tank 9</t>
+  </si>
+  <si>
+    <t>gill 31 HI Buzzs Tank 12</t>
+  </si>
+  <si>
+    <t>gill 17 HI Little Hurricane Island West Tank 5</t>
+  </si>
+  <si>
+    <t>gill 24 HI Little Hurricane Island West Tank 8</t>
+  </si>
+  <si>
+    <t>gill 28 HI Little Hurricane Island West Tank 10</t>
+  </si>
+  <si>
+    <t>gill 37 HI Little Hurricane Island West Tank 15</t>
+  </si>
+  <si>
+    <t>gill 40 HI Little Hurricane Island West Tank 16</t>
+  </si>
+  <si>
+    <t>Razor's Island</t>
+  </si>
+  <si>
+    <t>gill 11 Cobscook Tank 2</t>
+  </si>
+  <si>
+    <t>gill 12 Cobscook Tank 1</t>
+  </si>
+  <si>
+    <t>gill 13 Cobscook Tank 3</t>
+  </si>
+  <si>
+    <t>gill 16 Cobscook Tank 4</t>
+  </si>
+  <si>
+    <t>gill 18 Cobscook Tank 5</t>
+  </si>
+  <si>
+    <t>gill 20 Cobscook Tank 6</t>
+  </si>
+  <si>
+    <t>gill 21 Cobscook Tank 7</t>
+  </si>
+  <si>
+    <t>gill 23 Cobscook Tank 8</t>
+  </si>
+  <si>
+    <t>gill 26 Cobscook Tank 9</t>
+  </si>
+  <si>
+    <t>gill 27 Cobscook Tank 10</t>
+  </si>
+  <si>
+    <t>gill 30 Cobscook Tank 11</t>
+  </si>
+  <si>
+    <t>gill 32 Cobscook Tank 12</t>
+  </si>
+  <si>
+    <t>gill 33 Cobscook Tank 13</t>
+  </si>
+  <si>
+    <t>gill 35 Cobscook Tank 14</t>
+  </si>
+  <si>
+    <t>gill 38 Cobscook Tank 15</t>
+  </si>
+  <si>
+    <t>gill 39 Cobscook Tank 16</t>
+  </si>
+  <si>
+    <t>Tank 1</t>
+  </si>
+  <si>
+    <t>Tank 2</t>
+  </si>
+  <si>
+    <t>Tank 3</t>
+  </si>
+  <si>
+    <t>Tank 4</t>
+  </si>
+  <si>
+    <t>Tank 5</t>
+  </si>
+  <si>
+    <t>Tank 6</t>
+  </si>
+  <si>
+    <t>Tank 7</t>
+  </si>
+  <si>
+    <t>Tank 8</t>
+  </si>
+  <si>
+    <t>Tank 9</t>
+  </si>
+  <si>
+    <t>Tank 10</t>
+  </si>
+  <si>
+    <t>Tank 11</t>
+  </si>
+  <si>
+    <t>Tank 12</t>
+  </si>
+  <si>
+    <t>Tank 13</t>
+  </si>
+  <si>
+    <t>Tank 14</t>
+  </si>
+  <si>
+    <t>Tank 15</t>
+  </si>
+  <si>
+    <t>Tank 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gill 5 HI Crane East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gill 8 HI Crane East </t>
+  </si>
+  <si>
+    <t>gill 6 HI Buzzs</t>
+  </si>
+  <si>
+    <t>gill 7 HI Little Hurricane Island West</t>
+  </si>
+  <si>
+    <t>gill 1 Cobscook</t>
+  </si>
+  <si>
+    <t>gill 2 Cobscook</t>
+  </si>
+  <si>
+    <t>gill 3 Cobscook</t>
+  </si>
+  <si>
+    <t>gill 4 Cobscook</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -601,9 +673,9 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -827,7 +899,7 @@
   <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -907,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -968,19 +1040,19 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="F14" s="10">
         <v>45790</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -988,19 +1060,19 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -1008,19 +1080,19 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="H16" s="14"/>
     </row>
@@ -1028,19 +1100,19 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F17" s="10">
         <v>45798</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="16"/>
     </row>
@@ -7917,8 +7989,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7932,12 +8004,12 @@
     <col min="9" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" customWidth="1"/>
+    <col min="13" max="13" width="24.90625" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" customWidth="1"/>
+    <col min="15" max="15" width="44.90625" customWidth="1"/>
     <col min="16" max="16" width="13.7265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" customWidth="1"/>
     <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.90625" bestFit="1" customWidth="1"/>
@@ -7947,70 +8019,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="13">
       <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1">
@@ -8018,55 +8090,60 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="23">
         <v>45827</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="21" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="P2" s="25">
         <v>45827</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S2">
+        <v>42</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V2" s="21" t="b">
         <v>0</v>
@@ -8077,55 +8154,60 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="23">
         <v>45827</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O3" s="21" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="P3" s="25">
         <v>45827</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S3">
+        <v>63.5</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V3" s="21" t="b">
         <v>0</v>
@@ -8136,55 +8218,60 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="23">
         <v>45827</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K4" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O4" s="21" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="P4" s="25">
         <v>45827</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>36</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V4" s="21" t="b">
         <v>0</v>
@@ -8195,55 +8282,60 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="23">
         <v>45827</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O5" s="21" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="P5" s="25">
         <v>45827</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>38</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V5" s="21" t="b">
         <v>0</v>
@@ -8254,114 +8346,124 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="23">
         <v>45827</v>
       </c>
       <c r="H6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="21" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="P6" s="25">
         <v>45827</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <v>37.5</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V6" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.5" customHeight="1">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="23">
         <v>45827</v>
       </c>
       <c r="H7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O7" s="21" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="P7" s="25">
         <v>45827</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>36</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V7" s="21" t="b">
         <v>0</v>
@@ -8372,55 +8474,60 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="23">
         <v>45827</v>
       </c>
       <c r="H8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O8" s="21" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="P8" s="25">
         <v>45827</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>31.5</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V8" s="21" t="b">
         <v>0</v>
@@ -8431,55 +8538,60 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="23">
         <v>45827</v>
       </c>
       <c r="H9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="21" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="P9" s="25">
         <v>45827</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>34</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="V9" s="21" t="b">
         <v>0</v>
@@ -8490,46 +8602,61 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K10" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="P10" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10">
+        <v>67.95</v>
+      </c>
       <c r="T10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V10" s="21" t="b">
         <v>0</v>
       </c>
@@ -8539,46 +8666,61 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K11" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="P11" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11">
+        <v>64.400000000000006</v>
+      </c>
       <c r="T11" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V11" s="21" t="b">
         <v>0</v>
       </c>
@@ -8588,46 +8730,61 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K12" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="P12" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12">
+        <v>58.48</v>
+      </c>
       <c r="T12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
@@ -8637,46 +8794,61 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="P13" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13">
+        <v>64.69</v>
+      </c>
       <c r="T13" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V13" s="21" t="b">
         <v>0</v>
       </c>
@@ -8686,46 +8858,61 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K14" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="P14" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14">
+        <v>58.1</v>
+      </c>
       <c r="T14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U14" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V14" s="21" t="b">
         <v>0</v>
       </c>
@@ -8735,46 +8922,61 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="O15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="P15" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15">
+        <v>58.91</v>
+      </c>
       <c r="T15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V15" s="21" t="b">
         <v>0</v>
       </c>
@@ -8784,46 +8986,61 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K16" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="P16" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16">
+        <v>61.29</v>
+      </c>
       <c r="T16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U16" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V16" s="21" t="b">
         <v>0</v>
       </c>
@@ -8833,46 +9050,61 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K17" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="25"/>
+        <v>79</v>
+      </c>
+      <c r="P17" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17">
+        <v>46.23</v>
+      </c>
       <c r="T17" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V17" s="21" t="b">
         <v>0</v>
       </c>
@@ -8882,46 +9114,61 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K18" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="P18" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R18" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18">
+        <v>54.84</v>
+      </c>
       <c r="T18" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U18" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V18" s="21" t="b">
         <v>0</v>
       </c>
@@ -8931,46 +9178,61 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K19" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="P19" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R19" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19">
+        <v>66.13</v>
+      </c>
       <c r="T19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U19" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V19" s="21" t="b">
         <v>0</v>
       </c>
@@ -8980,46 +9242,61 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K20" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="P20" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20">
+        <v>45.71</v>
+      </c>
       <c r="T20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V20" s="21" t="b">
         <v>0</v>
       </c>
@@ -9029,46 +9306,61 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K21" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="P21" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21">
+        <v>60.18</v>
+      </c>
       <c r="T21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V21" s="21" t="b">
         <v>0</v>
       </c>
@@ -9078,46 +9370,61 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K22" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="P22" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q22" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R22" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22">
+        <v>59.17</v>
+      </c>
       <c r="T22" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U22" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V22" s="21" t="b">
         <v>0</v>
       </c>
@@ -9127,46 +9434,61 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
+      <c r="J23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K23" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="P23" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R23" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23">
+        <v>51.69</v>
+      </c>
       <c r="T23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V23" s="21" t="b">
         <v>0</v>
       </c>
@@ -9176,46 +9498,61 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21" t="s">
+      <c r="J24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K24" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="P24" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q24" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R24" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24">
+        <v>64.66</v>
+      </c>
       <c r="T24" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U24" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V24" s="21" t="b">
         <v>0</v>
       </c>
@@ -9225,46 +9562,61 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="D25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K25" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="P25" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R25" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25">
+        <v>56.1</v>
+      </c>
       <c r="T25" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V25" s="21" t="b">
         <v>0</v>
       </c>
@@ -9274,46 +9626,61 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K26" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O26" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="P26" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q26" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R26" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26">
+        <v>59.14</v>
+      </c>
       <c r="T26" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U26" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V26" s="21" t="b">
         <v>0</v>
       </c>
@@ -9323,46 +9690,61 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K27" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="P27" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R27" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>59.59</v>
+      </c>
       <c r="T27" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V27" s="21" t="b">
         <v>0</v>
       </c>
@@ -9372,46 +9754,61 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
+      <c r="J28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K28" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="P28" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q28" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R28" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S28">
+        <v>61.94</v>
+      </c>
       <c r="T28" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U28" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V28" s="21" t="b">
         <v>0</v>
       </c>
@@ -9421,46 +9818,61 @@
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
+      <c r="J29" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K29" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="P29" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q29" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R29" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S29">
+        <v>60.97</v>
+      </c>
       <c r="T29" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U29" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V29" s="21" t="b">
         <v>0</v>
       </c>
@@ -9470,46 +9882,61 @@
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="D30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21" t="s">
+      <c r="J30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K30" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="O30" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="P30" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q30" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R30" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S30">
+        <v>42.26</v>
+      </c>
       <c r="T30" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U30" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V30" s="21" t="b">
         <v>0</v>
       </c>
@@ -9519,46 +9946,61 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K31" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O31" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="P31" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q31" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R31" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31">
+        <v>51.32</v>
+      </c>
       <c r="T31" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U31" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V31" s="21" t="b">
         <v>0</v>
       </c>
@@ -9568,46 +10010,61 @@
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21" t="s">
+      <c r="J32" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K32" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P32" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="P32" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="S32">
+        <v>50.42</v>
+      </c>
       <c r="T32" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U32" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V32" s="21" t="b">
         <v>0</v>
       </c>
@@ -9617,247 +10074,590 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21" t="s">
+      <c r="J33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="K33" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O33" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="P33" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="P33" s="25">
+        <v>45834</v>
+      </c>
       <c r="Q33" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="R33" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="S33">
+        <v>51.3</v>
+      </c>
       <c r="T33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U33" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="V33" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="12.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+    <row r="34" spans="1:24" ht="14.5">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F34" s="21"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="G34" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
+      <c r="M34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S34">
+        <v>62.27</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="1:24" ht="12.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+    <row r="35" spans="1:24" ht="14.5">
+      <c r="A35" s="21">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="G35" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
+      <c r="M35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S35">
+        <v>41.31</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:24" ht="12.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+    <row r="36" spans="1:24" ht="14.5">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="G36" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
+      <c r="M36" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S36">
+        <v>49.72</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
     </row>
-    <row r="37" spans="1:24" ht="12.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+    <row r="37" spans="1:24" ht="14.5">
+      <c r="A37" s="21">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
+      <c r="G37" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
+      <c r="M37" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S37">
+        <v>42.22</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
     </row>
-    <row r="38" spans="1:24" ht="12.5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+    <row r="38" spans="1:24" ht="14.5">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="G38" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
+      <c r="M38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38">
+        <v>61.18</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V38" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W38" s="21"/>
       <c r="X38" s="21"/>
     </row>
-    <row r="39" spans="1:24" ht="12.5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+    <row r="39" spans="1:24" ht="14.5">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="G39" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
+      <c r="M39" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S39">
+        <v>59.81</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V39" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
     </row>
-    <row r="40" spans="1:24" ht="12.5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+    <row r="40" spans="1:24" ht="14.5">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="G40" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
+      <c r="M40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S40">
+        <v>58.32</v>
+      </c>
+      <c r="T40" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
     </row>
-    <row r="41" spans="1:24" ht="12.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+    <row r="41" spans="1:24" ht="14.5">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="G41" s="23">
+        <v>45834</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
+      <c r="M41" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="25">
+        <v>45834</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S41">
+        <v>52.39</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="W41" s="21"/>
       <c r="X41" s="21"/>
     </row>
